--- a/Filtration/Filtration/bin/Debug/net6.0/Исследование.xlsx
+++ b/Filtration/Filtration/bin/Debug/net6.0/Исследование.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asaul\Documents\GitHub\Filtration\Filtration\Filtration\bin\Debug\net6.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532B5563-D088-4638-9B78-BA64695EF34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FC9E65-6030-40C4-A017-3C3D34BE8CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="3795" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5955" yWindow="3795" windowWidth="28800" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сравнение решений при R = 0" sheetId="1" r:id="rId1"/>
@@ -6927,7 +6927,7 @@
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C100"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
